--- a/spreadsheet/macrofree/wafsg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.pt.xlsx
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>Os circuitos dedicados do ExpressRoute garantem a disponibilidade de '99,95%' quando uma conectividade ativa-ativa é configurada entre o local e o Azure. Esse modo fornece maior disponibilidade da conexão do Expressroute. Também é recomendável configurar o BFD para failover mais rápido se houver uma falha de link em uma conexão.</t>
+          <t>Esse modo fornece maior disponibilidade de suas conexões do Expressroute. Também é recomendável configurar o BFD para failover mais rápido se houver uma falha de link em uma conexão.</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>Crie um Gateway de Rede Virtual com reconhecimento de zona de disponibilidade para maior resiliência e planeje Gateways de Rede Virtual em diferentes regiões para recuperação de desastre e alta disponibilidade.</t>
+          <t>Crie um Gateway de Rede Virtual com reconhecimento de zona de disponibilidade para maior resiliência e planeje Gateways de Rede Virtual em diferentes regiões para resiliência, recuperação de desastre e alta disponibilidade.</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
